--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\source\repos\Octopus\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2F76E-B19C-4F19-B0AD-658329DB737F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9A18F-0874-4A4C-BF0B-FA3BE8C9281C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>property</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Octopus Group: Investments, Real Estate, Ventures, Energy, Wealth</t>
+  </si>
+  <si>
+    <t>ContactUsPageTitle</t>
+  </si>
+  <si>
+    <t>Get in touch with us | Octopus Group</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
